--- a/GBDS JANUARY FILES 2026/CSR MONTH OF JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/CSR MONTH OF JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702040EE-0AEE-4D9E-82E1-FE23127B4F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8DD3DA-ED81-40AC-A9C5-E9659D09C16A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="24" activeTab="36" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR | JANUARY" sheetId="902" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="01-01 R2" sheetId="1106" r:id="rId4"/>
     <sheet name="01-01 R3" sheetId="1107" r:id="rId5"/>
     <sheet name="(2)" sheetId="1218" r:id="rId6"/>
-    <sheet name="01-02 R1" sheetId="1219" r:id="rId7"/>
-    <sheet name="01-02 R2" sheetId="1220" r:id="rId8"/>
+    <sheet name="01-02 R1 NO TRIP" sheetId="1219" r:id="rId7"/>
+    <sheet name="01-02 R2 NO TRIP" sheetId="1220" r:id="rId8"/>
     <sheet name="01-02 R3" sheetId="1221" r:id="rId9"/>
     <sheet name="(3)" sheetId="1222" r:id="rId10"/>
     <sheet name="01-03 R1" sheetId="1223" r:id="rId11"/>
@@ -69,8 +69,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'01-01 R1'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'01-01 R2'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'01-01 R3'!$A$1:$V$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'01-02 R1'!$A$1:$V$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'01-02 R2'!$A$1:$V$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'01-02 R1 NO TRIP'!$A$1:$V$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'01-02 R2 NO TRIP'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'01-02 R3'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'01-03 R1'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'01-03 R2'!$A$1:$V$44</definedName>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="77">
   <si>
     <t>CHECKER STOCK REPORT</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>DATE ___________01/10/2026___________</t>
+  </si>
+  <si>
+    <t>4/18B</t>
+  </si>
+  <si>
+    <t>13/6B</t>
   </si>
 </sst>
 </file>
@@ -46116,7 +46122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30C8572-145E-439B-B149-FD0C598987C7}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -56481,7 +56487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F9F6FB-C769-4F8B-9761-4E622DA4D608}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -56835,12 +56841,20 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>4</v>
+      </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15">
+        <v>18</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -56852,9 +56866,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -57002,12 +57020,20 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>4</v>
+      </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -57019,20 +57045,32 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>75</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -57044,9 +57082,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -57429,20 +57471,34 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>3</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>137</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>20</v>
+      </c>
+      <c r="N24" s="15">
+        <v>482</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>20</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
+      <c r="U24" s="15">
+        <v>8</v>
+      </c>
       <c r="V24" s="16"/>
     </row>
     <row r="25" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -57594,20 +57650,34 @@
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>3</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>62</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24">
+        <v>2</v>
+      </c>
+      <c r="M31" s="24">
+        <v>8</v>
+      </c>
+      <c r="N31" s="24">
+        <v>2</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>20</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
-      <c r="U31" s="64"/>
+      <c r="U31" s="64">
+        <v>0</v>
+      </c>
       <c r="V31" s="25"/>
     </row>
     <row r="32" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -57619,20 +57689,34 @@
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>75</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>12</v>
+      </c>
+      <c r="N32" s="29">
+        <v>480</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
-      <c r="U32" s="66"/>
+      <c r="U32" s="66">
+        <v>8</v>
+      </c>
       <c r="V32" s="30"/>
     </row>
     <row r="33" spans="2:23" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -57754,21 +57838,47 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="49">
+        <v>1</v>
+      </c>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="F36" s="45">
+        <v>680</v>
+      </c>
+      <c r="G36" s="45">
+        <v>2</v>
+      </c>
+      <c r="H36" s="45">
+        <v>21</v>
+      </c>
+      <c r="I36" s="45">
+        <v>6</v>
+      </c>
+      <c r="J36" s="45">
+        <v>6</v>
+      </c>
+      <c r="K36" s="45">
+        <v>14</v>
+      </c>
+      <c r="L36" s="45">
+        <v>4</v>
+      </c>
+      <c r="M36" s="45">
+        <v>1</v>
+      </c>
+      <c r="N36" s="45">
+        <v>6</v>
+      </c>
+      <c r="O36" s="45">
+        <v>3</v>
+      </c>
+      <c r="P36" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>24</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -57894,21 +58004,47 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="F42" s="45">
+        <v>680</v>
+      </c>
+      <c r="G42" s="45">
+        <v>2</v>
+      </c>
+      <c r="H42" s="45">
+        <v>21</v>
+      </c>
+      <c r="I42" s="45">
+        <v>6</v>
+      </c>
+      <c r="J42" s="45">
+        <v>6</v>
+      </c>
+      <c r="K42" s="45">
+        <v>14</v>
+      </c>
+      <c r="L42" s="45">
+        <v>4</v>
+      </c>
+      <c r="M42" s="45">
+        <v>1</v>
+      </c>
+      <c r="N42" s="45">
+        <v>6</v>
+      </c>
+      <c r="O42" s="45">
+        <v>3</v>
+      </c>
+      <c r="P42" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>24</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>

--- a/GBDS JANUARY FILES 2026/CSR MONTH OF JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/CSR MONTH OF JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0468F404-C9F4-46A1-8A76-2D3C7C63183A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78089DEE-45B0-4BBE-991E-A5361CFD2871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="16" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="20" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR | JANUARY" sheetId="902" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="101">
   <si>
     <t>CHECKER STOCK REPORT</t>
   </si>
@@ -383,6 +383,36 @@
   </si>
   <si>
     <t>24/6B</t>
+  </si>
+  <si>
+    <t>19/3B</t>
+  </si>
+  <si>
+    <t>28/3B</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>1/12B</t>
+  </si>
+  <si>
+    <t>17/1B</t>
+  </si>
+  <si>
+    <t>20B</t>
+  </si>
+  <si>
+    <t>17/21B</t>
+  </si>
+  <si>
+    <t>22/18B</t>
+  </si>
+  <si>
+    <t>20/10B</t>
+  </si>
+  <si>
+    <t>2/8B</t>
   </si>
 </sst>
 </file>
@@ -943,7 +973,7 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1179,6 +1209,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13987,7 +14020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8C24C4-CA38-4534-B5B2-1BF5BB250212}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -17431,11 +17464,15 @@
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -17447,9 +17484,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>1</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -17598,11 +17639,15 @@
         <v>25</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -17614,20 +17659,28 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="77">
+        <v>9</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -17639,9 +17692,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59" t="s">
+        <v>93</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -18020,20 +18077,36 @@
         <v>23</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="J24" s="15">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15">
+        <v>1</v>
+      </c>
+      <c r="L24" s="15">
+        <v>1</v>
+      </c>
+      <c r="M24" s="15">
+        <v>5</v>
+      </c>
+      <c r="N24" s="15">
+        <v>665</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>17</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -18185,20 +18258,36 @@
         <v>25</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>0</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="J31" s="24">
+        <v>13</v>
+      </c>
+      <c r="K31" s="24">
+        <v>1</v>
+      </c>
+      <c r="L31" s="24">
+        <v>0</v>
+      </c>
+      <c r="M31" s="24">
+        <v>3</v>
+      </c>
+      <c r="N31" s="24">
+        <v>32</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>17</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -18210,20 +18299,36 @@
         <v>26</v>
       </c>
       <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
+      <c r="D32" s="28">
+        <v>0</v>
+      </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>1</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="J32" s="29">
+        <v>27</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0</v>
+      </c>
+      <c r="L32" s="29">
+        <v>1</v>
+      </c>
+      <c r="M32" s="29">
+        <v>2</v>
+      </c>
+      <c r="N32" s="29">
+        <v>633</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -18352,18 +18457,40 @@
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="F36" s="45">
+        <v>641</v>
+      </c>
+      <c r="G36" s="45">
+        <v>12</v>
+      </c>
+      <c r="H36" s="45">
+        <v>9</v>
+      </c>
+      <c r="I36" s="45">
+        <v>12</v>
+      </c>
+      <c r="J36" s="45">
+        <v>2</v>
+      </c>
+      <c r="K36" s="45">
+        <v>11</v>
+      </c>
+      <c r="L36" s="45">
+        <v>3</v>
+      </c>
+      <c r="M36" s="45">
+        <v>1</v>
+      </c>
+      <c r="N36" s="45">
+        <v>3</v>
+      </c>
+      <c r="O36" s="45">
+        <v>6</v>
+      </c>
       <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="Q36" s="46">
+        <v>22</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -18492,18 +18619,40 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
+      <c r="F42" s="45">
+        <v>641</v>
+      </c>
+      <c r="G42" s="45">
+        <v>12</v>
+      </c>
+      <c r="H42" s="45">
+        <v>9</v>
+      </c>
+      <c r="I42" s="45">
+        <v>12</v>
+      </c>
+      <c r="J42" s="45">
+        <v>2</v>
+      </c>
+      <c r="K42" s="45">
+        <v>11</v>
+      </c>
+      <c r="L42" s="45">
+        <v>3</v>
+      </c>
+      <c r="M42" s="45">
+        <v>1</v>
+      </c>
+      <c r="N42" s="45">
+        <v>3</v>
+      </c>
+      <c r="O42" s="45">
+        <v>6</v>
+      </c>
       <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="Q42" s="46">
+        <v>22</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
@@ -20391,12 +20540,20 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="15">
+        <v>3</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -20408,9 +20565,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -20558,12 +20719,20 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>3</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -20575,20 +20744,32 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="60">
+        <v>1</v>
+      </c>
       <c r="D16" s="61"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="F16" s="28">
+        <v>3</v>
+      </c>
+      <c r="G16" s="29">
+        <v>1</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -20600,9 +20781,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -20985,15 +21170,27 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>58</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>10</v>
+      </c>
+      <c r="N24" s="15">
+        <v>640</v>
+      </c>
       <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="P24" s="15">
+        <v>1</v>
+      </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
@@ -21150,15 +21347,27 @@
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>2</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>17</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24">
+        <v>2</v>
+      </c>
+      <c r="M31" s="24">
+        <v>7</v>
+      </c>
+      <c r="N31" s="24">
+        <v>59</v>
+      </c>
       <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
+      <c r="P31" s="24">
+        <v>0</v>
+      </c>
       <c r="Q31" s="24"/>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
@@ -21175,15 +21384,27 @@
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>41</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>3</v>
+      </c>
+      <c r="N32" s="29">
+        <v>581</v>
+      </c>
       <c r="O32" s="24"/>
-      <c r="P32" s="29"/>
+      <c r="P32" s="29">
+        <v>1</v>
+      </c>
       <c r="Q32" s="29"/>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
@@ -21313,18 +21534,38 @@
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
+      <c r="F36" s="45">
+        <v>758</v>
+      </c>
+      <c r="G36" s="45">
+        <v>1</v>
+      </c>
       <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="I36" s="45">
+        <v>2</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45">
+        <v>2</v>
+      </c>
+      <c r="L36" s="45">
+        <v>3</v>
+      </c>
       <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="N36" s="45">
+        <v>24</v>
+      </c>
+      <c r="O36" s="45">
+        <v>8</v>
+      </c>
+      <c r="P36" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>21</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -21453,18 +21694,38 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
+      <c r="F42" s="45">
+        <v>758</v>
+      </c>
+      <c r="G42" s="45">
+        <v>1</v>
+      </c>
       <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
+      <c r="I42" s="45">
+        <v>2</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
+      <c r="K42" s="45">
+        <v>2</v>
+      </c>
+      <c r="L42" s="45">
+        <v>3</v>
+      </c>
       <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="N42" s="45">
+        <v>24</v>
+      </c>
+      <c r="O42" s="45">
+        <v>8</v>
+      </c>
+      <c r="P42" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>21</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
@@ -21518,7 +21779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C68E2D-4089-4CE9-8E40-AA436510A840}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -21872,12 +22133,18 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <v>3</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -21889,9 +22156,15 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
+      <c r="U8" s="62">
+        <v>1</v>
+      </c>
+      <c r="V8" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -22039,12 +22312,18 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>2</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="24">
+        <v>2</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -22056,20 +22335,32 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
+      <c r="U15" s="64">
+        <v>0</v>
+      </c>
+      <c r="V15" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
       <c r="D16" s="61"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -22081,9 +22372,15 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
+      <c r="U16" s="65">
+        <v>1</v>
+      </c>
+      <c r="V16" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -22461,21 +22758,37 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>2</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>3</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="J24" s="15">
+        <v>130</v>
+      </c>
+      <c r="K24" s="15">
+        <v>1</v>
+      </c>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>20</v>
+      </c>
+      <c r="N24" s="15">
+        <v>614</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>18</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -22626,21 +22939,37 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>2</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>3</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="J31" s="24">
+        <v>117</v>
+      </c>
+      <c r="K31" s="24">
+        <v>1</v>
+      </c>
+      <c r="L31" s="24">
+        <v>2</v>
+      </c>
+      <c r="M31" s="24">
+        <v>19</v>
+      </c>
+      <c r="N31" s="24">
+        <v>273</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>18</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -22651,21 +22980,37 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="J32" s="29">
+        <v>13</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0</v>
+      </c>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>1</v>
+      </c>
+      <c r="N32" s="29">
+        <v>341</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -22791,21 +23136,47 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="49">
+        <v>1</v>
+      </c>
       <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="E36" s="45">
+        <v>1</v>
+      </c>
+      <c r="F36" s="45">
+        <v>439</v>
+      </c>
+      <c r="G36" s="45">
+        <v>3</v>
+      </c>
+      <c r="H36" s="45">
+        <v>2</v>
+      </c>
+      <c r="I36" s="45">
+        <v>25</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45">
+        <v>11</v>
+      </c>
+      <c r="L36" s="45">
+        <v>2</v>
+      </c>
       <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="N36" s="45">
+        <v>7</v>
+      </c>
+      <c r="O36" s="45">
+        <v>1</v>
+      </c>
+      <c r="P36" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>16</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -22931,21 +23302,47 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
       <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
+      <c r="E42" s="45">
+        <v>1</v>
+      </c>
+      <c r="F42" s="45">
+        <v>439</v>
+      </c>
+      <c r="G42" s="45">
+        <v>3</v>
+      </c>
+      <c r="H42" s="45">
+        <v>2</v>
+      </c>
+      <c r="I42" s="45">
+        <v>25</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
+      <c r="K42" s="45">
+        <v>11</v>
+      </c>
+      <c r="L42" s="45">
+        <v>2</v>
+      </c>
       <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="N42" s="45">
+        <v>7</v>
+      </c>
+      <c r="O42" s="45">
+        <v>1</v>
+      </c>
+      <c r="P42" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>16</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>

--- a/GBDS JANUARY FILES 2026/CSR MONTH OF JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/CSR MONTH OF JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78089DEE-45B0-4BBE-991E-A5361CFD2871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAB5E6D-C74D-4D7D-BF55-B01BB23C862A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="20" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="24" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR | JANUARY" sheetId="902" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="109">
   <si>
     <t>CHECKER STOCK REPORT</t>
   </si>
@@ -413,6 +413,30 @@
   </si>
   <si>
     <t>2/8B</t>
+  </si>
+  <si>
+    <t>25/3B</t>
+  </si>
+  <si>
+    <t>13/3B</t>
+  </si>
+  <si>
+    <t>17/20B</t>
+  </si>
+  <si>
+    <t>2/9B</t>
+  </si>
+  <si>
+    <t>15/11B</t>
+  </si>
+  <si>
+    <t>14/6B</t>
+  </si>
+  <si>
+    <t>11/4B</t>
+  </si>
+  <si>
+    <t>25/10B</t>
   </si>
 </sst>
 </file>
@@ -1184,6 +1208,9 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1209,9 +1236,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4435,45 +4459,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -4684,13 +4708,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -5982,45 +6006,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -6251,13 +6275,13 @@
       <c r="Q42" s="46">
         <v>25</v>
       </c>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -7483,45 +7507,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -7732,13 +7756,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -9030,45 +9054,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -9331,13 +9355,13 @@
       <c r="Q42" s="46">
         <v>7</v>
       </c>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -10563,45 +10587,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -10812,13 +10836,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -12115,45 +12139,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -12416,13 +12440,13 @@
       <c r="Q42" s="46">
         <v>22</v>
       </c>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -13702,45 +13726,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -13967,13 +13991,13 @@
       <c r="Q42" s="46">
         <v>30</v>
       </c>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -15271,45 +15295,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -15576,13 +15600,13 @@
       <c r="Q42" s="46">
         <v>15</v>
       </c>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -16808,45 +16832,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -17057,13 +17081,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -17678,7 +17702,7 @@
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="77">
+      <c r="H16" s="68">
         <v>9</v>
       </c>
       <c r="I16" s="29"/>
@@ -18360,45 +18384,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -18653,13 +18677,13 @@
       <c r="Q42" s="46">
         <v>22</v>
       </c>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -19885,45 +19909,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -20134,13 +20158,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -21437,45 +21461,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -21726,13 +21750,13 @@
       <c r="Q42" s="46">
         <v>21</v>
       </c>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -21779,7 +21803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C68E2D-4089-4CE9-8E40-AA436510A840}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -23042,45 +23066,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -23343,13 +23367,13 @@
       <c r="Q42" s="46">
         <v>16</v>
       </c>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -24575,45 +24599,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -24824,13 +24848,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -25231,11 +25255,17 @@
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -25247,9 +25277,15 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="T8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="U8" s="62">
+        <v>1</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -25398,11 +25434,17 @@
         <v>25</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24">
+        <v>12</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -25414,20 +25456,32 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="T15" s="24">
+        <v>0</v>
+      </c>
+      <c r="U15" s="64">
+        <v>0</v>
+      </c>
+      <c r="V15" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>102</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -25439,9 +25493,15 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="T16" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="U16" s="65">
+        <v>1</v>
+      </c>
+      <c r="V16" s="30" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -25820,20 +25880,34 @@
         <v>23</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="J24" s="15">
+        <v>10</v>
+      </c>
+      <c r="K24" s="15">
+        <v>1</v>
+      </c>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>5</v>
+      </c>
+      <c r="N24" s="15">
+        <v>546</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>17</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -25985,20 +26059,34 @@
         <v>25</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="J31" s="24">
+        <v>0</v>
+      </c>
+      <c r="K31" s="24">
+        <v>1</v>
+      </c>
+      <c r="L31" s="24">
+        <v>0</v>
+      </c>
+      <c r="M31" s="24">
+        <v>3</v>
+      </c>
+      <c r="N31" s="24">
+        <v>23</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>16</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -26010,20 +26098,34 @@
         <v>26</v>
       </c>
       <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
+      <c r="D32" s="28">
+        <v>0</v>
+      </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="J32" s="29">
+        <v>10</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0</v>
+      </c>
+      <c r="L32" s="29">
+        <v>2</v>
+      </c>
+      <c r="M32" s="29">
+        <v>2</v>
+      </c>
+      <c r="N32" s="29">
+        <v>523</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>1</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -26055,45 +26157,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -26150,20 +26252,42 @@
         <v>52</v>
       </c>
       <c r="C36" s="49"/>
-      <c r="D36" s="44"/>
+      <c r="D36" s="44">
+        <v>2</v>
+      </c>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="F36" s="45">
+        <v>1005</v>
+      </c>
+      <c r="G36" s="45">
+        <v>4</v>
+      </c>
+      <c r="H36" s="45">
+        <v>2</v>
+      </c>
+      <c r="I36" s="45">
+        <v>5</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45">
+        <v>30</v>
+      </c>
       <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="M36" s="45">
+        <v>1</v>
+      </c>
+      <c r="N36" s="45">
+        <v>34</v>
+      </c>
+      <c r="O36" s="45">
+        <v>9</v>
+      </c>
       <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="Q36" s="46">
+        <v>10</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -26290,27 +26414,49 @@
         <v>53</v>
       </c>
       <c r="C42" s="49"/>
-      <c r="D42" s="44"/>
+      <c r="D42" s="44">
+        <v>2</v>
+      </c>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
+      <c r="F42" s="45">
+        <v>1005</v>
+      </c>
+      <c r="G42" s="45">
+        <v>4</v>
+      </c>
+      <c r="H42" s="45">
+        <v>2</v>
+      </c>
+      <c r="I42" s="45">
+        <v>5</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
+      <c r="K42" s="45">
+        <v>30</v>
+      </c>
       <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
+      <c r="M42" s="45">
+        <v>1</v>
+      </c>
+      <c r="N42" s="45">
+        <v>34</v>
+      </c>
+      <c r="O42" s="45">
+        <v>9</v>
+      </c>
       <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="Q42" s="46">
+        <v>10</v>
+      </c>
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -26711,12 +26857,18 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14">
+        <v>3</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -26728,9 +26880,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -26878,12 +27034,18 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>3</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="24">
+        <v>2</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -26895,20 +27057,30 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
       <c r="D16" s="61"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>0</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -26920,9 +27092,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -27300,21 +27476,37 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>32</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>8</v>
+      </c>
+      <c r="N24" s="15">
+        <v>491</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>5</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -27465,21 +27657,37 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>2</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>12</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24">
+        <v>2</v>
+      </c>
+      <c r="M31" s="24">
+        <v>8</v>
+      </c>
+      <c r="N31" s="24">
+        <v>41</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>2</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -27490,21 +27698,37 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
+      <c r="D32" s="28">
+        <v>0</v>
+      </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>20</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>0</v>
+      </c>
+      <c r="N32" s="29">
+        <v>450</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>3</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -27536,45 +27760,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -27633,18 +27857,30 @@
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
+      <c r="F36" s="45">
+        <v>466</v>
+      </c>
+      <c r="G36" s="45">
+        <v>8</v>
+      </c>
+      <c r="H36" s="45">
+        <v>2</v>
+      </c>
       <c r="I36" s="45"/>
       <c r="J36" s="45"/>
       <c r="K36" s="45"/>
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
       <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="O36" s="45">
+        <v>10</v>
+      </c>
+      <c r="P36" s="45">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>15</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -27773,25 +28009,37 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
+      <c r="F42" s="45">
+        <v>466</v>
+      </c>
+      <c r="G42" s="45">
+        <v>8</v>
+      </c>
+      <c r="H42" s="45">
+        <v>2</v>
+      </c>
       <c r="I42" s="45"/>
       <c r="J42" s="45"/>
       <c r="K42" s="45"/>
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
       <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="O42" s="45">
+        <v>10</v>
+      </c>
+      <c r="P42" s="45">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>15</v>
+      </c>
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -27838,7 +28086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CCBA06-5346-4F7D-ACE5-043EF4D40A87}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -28192,12 +28440,20 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="15">
+        <v>5</v>
+      </c>
+      <c r="G8" s="15">
+        <v>5</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -28209,9 +28465,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -28359,12 +28619,20 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>2</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -28376,20 +28644,32 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
       <c r="D16" s="61"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="F16" s="28">
+        <v>5</v>
+      </c>
+      <c r="G16" s="29">
+        <v>5</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>106</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -28401,9 +28681,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -28781,21 +29065,37 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>2</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>3</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="J24" s="15">
+        <v>117</v>
+      </c>
+      <c r="K24" s="15">
+        <v>1</v>
+      </c>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>19</v>
+      </c>
+      <c r="N24" s="15">
+        <v>597</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>18</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -28946,21 +29246,37 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>2</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="J31" s="24">
+        <v>33</v>
+      </c>
+      <c r="K31" s="24">
+        <v>1</v>
+      </c>
+      <c r="L31" s="24">
+        <v>0</v>
+      </c>
+      <c r="M31" s="24">
+        <v>0</v>
+      </c>
+      <c r="N31" s="24">
+        <v>217</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>18</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -28971,21 +29287,37 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>1</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>1</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="J32" s="29">
+        <v>84</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0</v>
+      </c>
+      <c r="L32" s="29">
+        <v>2</v>
+      </c>
+      <c r="M32" s="29">
+        <v>19</v>
+      </c>
+      <c r="N32" s="29">
+        <v>380</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -29017,45 +29349,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -29111,21 +29443,45 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="49">
+        <v>1</v>
+      </c>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="F36" s="45">
+        <v>429</v>
+      </c>
+      <c r="G36" s="45">
+        <v>14</v>
+      </c>
+      <c r="H36" s="45">
+        <v>2</v>
+      </c>
+      <c r="I36" s="45">
+        <v>17</v>
+      </c>
       <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="K36" s="45">
+        <v>4</v>
+      </c>
+      <c r="L36" s="45">
+        <v>5</v>
+      </c>
+      <c r="M36" s="45">
+        <v>2</v>
+      </c>
+      <c r="N36" s="45">
+        <v>9</v>
+      </c>
+      <c r="O36" s="45">
+        <v>5</v>
+      </c>
+      <c r="P36" s="45">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>18</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -29251,28 +29607,52 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="F42" s="45">
+        <v>429</v>
+      </c>
+      <c r="G42" s="45">
+        <v>14</v>
+      </c>
+      <c r="H42" s="45">
+        <v>2</v>
+      </c>
+      <c r="I42" s="45">
+        <v>17</v>
+      </c>
       <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="K42" s="45">
+        <v>4</v>
+      </c>
+      <c r="L42" s="45">
+        <v>5</v>
+      </c>
+      <c r="M42" s="45">
+        <v>2</v>
+      </c>
+      <c r="N42" s="45">
+        <v>9</v>
+      </c>
+      <c r="O42" s="45">
+        <v>5</v>
+      </c>
+      <c r="P42" s="45">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>18</v>
+      </c>
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -30498,45 +30878,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -30747,13 +31127,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -31978,45 +32358,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -32227,13 +32607,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -33459,45 +33839,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -33708,13 +34088,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -34940,45 +35320,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -35189,13 +35569,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -36421,45 +36801,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -36670,13 +37050,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -37902,45 +38282,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -38151,13 +38531,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -39382,45 +39762,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -39631,13 +40011,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -40863,45 +41243,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -41112,13 +41492,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -42344,45 +42724,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -42593,13 +42973,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -43825,45 +44205,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -44074,13 +44454,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -45305,45 +45685,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -45554,13 +45934,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -46786,45 +47166,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -47035,13 +47415,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -48267,45 +48647,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -48516,13 +48896,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -49748,45 +50128,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -49997,13 +50377,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -51228,45 +51608,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -51477,13 +51857,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -52709,45 +53089,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -52958,13 +53338,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -54190,45 +54570,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -54439,13 +54819,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -55670,45 +56050,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -55919,13 +56299,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -57151,45 +57531,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -57400,13 +57780,13 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -58710,45 +59090,45 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76" t="s">
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76" t="s">
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76" t="s">
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="68" t="s">
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -59011,13 +59391,13 @@
       <c r="Q42" s="46">
         <v>24</v>
       </c>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
     </row>
     <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
